--- a/PhD Contents.xlsx
+++ b/PhD Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jc142077/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olgadowns-my.sharepoint.com/personal/william_olgadowns_com/Documents/Desktop/phd-chapter-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FCFD9B-33B1-8F4F-90AF-C45A7335B8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{86FCFD9B-33B1-8F4F-90AF-C45A7335B8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{271FE354-DE79-4E84-BB29-E2C64D4630FE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="6" xr2:uid="{62D443F7-1159-EE45-A67E-FCC991D831A1}"/>
+    <workbookView xWindow="3270" yWindow="2370" windowWidth="19440" windowHeight="11280" activeTab="1" xr2:uid="{62D443F7-1159-EE45-A67E-FCC991D831A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 1" sheetId="1" r:id="rId1"/>
@@ -74,73 +74,73 @@
     <t>Thesis Outline</t>
   </si>
   <si>
+    <t>Research Ethics</t>
+  </si>
+  <si>
+    <t>Study population</t>
+  </si>
+  <si>
+    <t>Data collection instruments</t>
+  </si>
+  <si>
+    <t>Research data storage</t>
+  </si>
+  <si>
+    <t>Data analysis techniques</t>
+  </si>
+  <si>
+    <t>Risk management</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>How do farmers use the internet?</t>
+  </si>
+  <si>
+    <t>Survey Dataset</t>
+  </si>
+  <si>
+    <t>Data cleaning</t>
+  </si>
+  <si>
+    <t>Respondent demographics</t>
+  </si>
+  <si>
+    <t>Discussion of findings</t>
+  </si>
+  <si>
+    <t>Response to rationale</t>
+  </si>
+  <si>
+    <t>Contribution of the thesis</t>
+  </si>
+  <si>
+    <t>Future research potential</t>
+  </si>
+  <si>
+    <t>Limitations and generalisability</t>
+  </si>
+  <si>
+    <t>Recommendations</t>
+  </si>
+  <si>
+    <t>Study 3 - How do farmers use social media</t>
+  </si>
+  <si>
+    <t>Study 2 - How do farmers use the internet</t>
+  </si>
+  <si>
+    <t>Study 1 - Understanding the connectity literacy of farmers</t>
+  </si>
+  <si>
+    <t>Demographic analysis</t>
+  </si>
+  <si>
     <t>Philosophical perspective</t>
   </si>
   <si>
     <t>Methodological foundation</t>
-  </si>
-  <si>
-    <t>Research Ethics</t>
-  </si>
-  <si>
-    <t>Study population</t>
-  </si>
-  <si>
-    <t>Data collection instruments</t>
-  </si>
-  <si>
-    <t>Research data storage</t>
-  </si>
-  <si>
-    <t>Data analysis techniques</t>
-  </si>
-  <si>
-    <t>Risk management</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>How do farmers use the internet?</t>
-  </si>
-  <si>
-    <t>Survey Dataset</t>
-  </si>
-  <si>
-    <t>Data cleaning</t>
-  </si>
-  <si>
-    <t>Respondent demographics</t>
-  </si>
-  <si>
-    <t>Discussion of findings</t>
-  </si>
-  <si>
-    <t>Response to rationale</t>
-  </si>
-  <si>
-    <t>Contribution of the thesis</t>
-  </si>
-  <si>
-    <t>Future research potential</t>
-  </si>
-  <si>
-    <t>Limitations and generalisability</t>
-  </si>
-  <si>
-    <t>Recommendations</t>
-  </si>
-  <si>
-    <t>Study 3 - How do farmers use social media</t>
-  </si>
-  <si>
-    <t>Study 2 - How do farmers use the internet</t>
-  </si>
-  <si>
-    <t>Study 1 - Understanding the connectity literacy of farmers</t>
-  </si>
-  <si>
-    <t>Demographic analysis</t>
   </si>
 </sst>
 </file>
@@ -193,6 +193,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,29 +522,29 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -561,80 +565,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E84984-9C2A-7E44-9A9D-5CDEAF6600B9}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView zoomScale="219" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="219" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="_Toc167305376" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305376" xr:uid="{DA9B9EA4-5510-DB41-9EB2-14722AD68030}"/>
-    <hyperlink ref="A3" r:id="rId2" location="_Toc167305377" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305377" xr:uid="{950B3D6A-4F9A-C442-8848-326306C8FFCC}"/>
-    <hyperlink ref="A4" r:id="rId3" location="_Toc167305378" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305378" xr:uid="{8D138CCC-F5C7-594C-B1DB-520B591E1D20}"/>
-    <hyperlink ref="A5" r:id="rId4" location="_Toc167305379" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305379" xr:uid="{AFB76741-C395-5E40-B246-F414A142828A}"/>
-    <hyperlink ref="A6" r:id="rId5" location="_Toc167305380" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305380" xr:uid="{F2CAB33E-968E-D741-82AE-6FCD26647902}"/>
-    <hyperlink ref="A7" r:id="rId6" location="_Toc167305383" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305383" xr:uid="{26A90D7B-A1E7-254E-B74F-E2A290346162}"/>
-    <hyperlink ref="A8" r:id="rId7" location="_Toc167305386" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305386" xr:uid="{E69C5A28-0CE1-8644-AC24-C6BB86D86529}"/>
-    <hyperlink ref="A9" r:id="rId8" location="_Toc167305387" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305387" xr:uid="{FED5750B-2240-8E48-899C-D23892F998A1}"/>
-    <hyperlink ref="A10" r:id="rId9" location="_Toc167305391" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305391" xr:uid="{10EFBC3E-490D-F945-A2D5-9511D5012F8B}"/>
-    <hyperlink ref="A11" r:id="rId10" location="_Toc167305392" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305392" xr:uid="{7D8DABA8-E131-B942-A43E-9A3B44F5F046}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -648,29 +643,29 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -695,39 +690,39 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -746,39 +741,39 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -797,39 +792,39 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -843,55 +838,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F03E4B-DE81-A947-8941-670B8DF6F966}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/PhD Contents.xlsx
+++ b/PhD Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olgadowns-my.sharepoint.com/personal/william_olgadowns_com/Documents/Desktop/phd-chapter-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{86FCFD9B-33B1-8F4F-90AF-C45A7335B8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{271FE354-DE79-4E84-BB29-E2C64D4630FE}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{86FCFD9B-33B1-8F4F-90AF-C45A7335B8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F97BB9C0-6224-4081-AD9B-095274F2558D}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2370" windowWidth="19440" windowHeight="11280" activeTab="1" xr2:uid="{62D443F7-1159-EE45-A67E-FCC991D831A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51120" windowHeight="19080" activeTab="2" xr2:uid="{62D443F7-1159-EE45-A67E-FCC991D831A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 1" sheetId="1" r:id="rId1"/>
@@ -42,105 +42,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Methodology</t>
   </si>
   <si>
-    <t>Introduction</t>
-  </si>
-  <si>
-    <t>Conclusion</t>
-  </si>
-  <si>
-    <t>Literature Review</t>
-  </si>
-  <si>
-    <t>Results and Discussion</t>
-  </si>
-  <si>
-    <t>Limitations and bias</t>
-  </si>
-  <si>
     <t>Discussion and conclusion</t>
   </si>
   <si>
-    <t>Background and research rational</t>
-  </si>
-  <si>
-    <t>Research Objective</t>
-  </si>
-  <si>
-    <t>Thesis Outline</t>
-  </si>
-  <si>
-    <t>Research Ethics</t>
-  </si>
-  <si>
-    <t>Study population</t>
-  </si>
-  <si>
-    <t>Data collection instruments</t>
-  </si>
-  <si>
-    <t>Research data storage</t>
-  </si>
-  <si>
-    <t>Data analysis techniques</t>
-  </si>
-  <si>
-    <t>Risk management</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
     <t>How do farmers use the internet?</t>
   </si>
   <si>
-    <t>Survey Dataset</t>
-  </si>
-  <si>
-    <t>Data cleaning</t>
-  </si>
-  <si>
-    <t>Respondent demographics</t>
-  </si>
-  <si>
-    <t>Discussion of findings</t>
-  </si>
-  <si>
-    <t>Response to rationale</t>
-  </si>
-  <si>
-    <t>Contribution of the thesis</t>
-  </si>
-  <si>
-    <t>Future research potential</t>
-  </si>
-  <si>
-    <t>Limitations and generalisability</t>
-  </si>
-  <si>
-    <t>Recommendations</t>
-  </si>
-  <si>
-    <t>Study 3 - How do farmers use social media</t>
-  </si>
-  <si>
-    <t>Study 2 - How do farmers use the internet</t>
-  </si>
-  <si>
-    <t>Study 1 - Understanding the connectity literacy of farmers</t>
-  </si>
-  <si>
     <t>Demographic analysis</t>
   </si>
   <si>
-    <t>Philosophical perspective</t>
-  </si>
-  <si>
-    <t>Methodological foundation</t>
+    <t>Analysing Understanding for farmers use of the internet</t>
+  </si>
+  <si>
+    <t>Understanding the internet connectivity requirements of farmers</t>
+  </si>
+  <si>
+    <t>How do farmers use social media</t>
+  </si>
+  <si>
+    <t>1.1 Background and research rational</t>
+  </si>
+  <si>
+    <t>1.2 Research Objective</t>
+  </si>
+  <si>
+    <t>1.3 Thesis Outline</t>
+  </si>
+  <si>
+    <t>1.4 Chapter Summary</t>
+  </si>
+  <si>
+    <t>2.1 Introduction</t>
+  </si>
+  <si>
+    <t>2.2 Philosophical perspective</t>
+  </si>
+  <si>
+    <t>2.3 Methodological foundation</t>
+  </si>
+  <si>
+    <t>2.4 Research Ethics</t>
+  </si>
+  <si>
+    <t>2.5 Study population</t>
+  </si>
+  <si>
+    <t>2.6 Data collection instruments</t>
+  </si>
+  <si>
+    <t>2.7 Research data storage</t>
+  </si>
+  <si>
+    <t>2.9 Literature review methodology</t>
+  </si>
+  <si>
+    <t>2.8 Data analysis techniques</t>
+  </si>
+  <si>
+    <t>2.10 Risk management</t>
+  </si>
+  <si>
+    <t>2.11 Chapter Summary</t>
+  </si>
+  <si>
+    <t>4.1 Introduction</t>
+  </si>
+  <si>
+    <t>4.2 Literature Review</t>
+  </si>
+  <si>
+    <t>4.3 Methodology</t>
+  </si>
+  <si>
+    <t>4.4 Results and Discussion</t>
+  </si>
+  <si>
+    <t>4.5 Chapter Summary</t>
+  </si>
+  <si>
+    <t>4.6 Limitations and bias</t>
+  </si>
+  <si>
+    <t>5.1 Introduction</t>
+  </si>
+  <si>
+    <t>5.2 Literature Review</t>
+  </si>
+  <si>
+    <t>5.3 Methodology</t>
+  </si>
+  <si>
+    <t>5.4 Results and Discussion</t>
+  </si>
+  <si>
+    <t>5.5 Chapter Summary</t>
+  </si>
+  <si>
+    <t>5.6 Limitations and bias</t>
+  </si>
+  <si>
+    <t>6.1 Introduction</t>
+  </si>
+  <si>
+    <t>6.2 Literature Review</t>
+  </si>
+  <si>
+    <t>6.3 Methodology</t>
+  </si>
+  <si>
+    <t>6.4 Results and Discussion</t>
+  </si>
+  <si>
+    <t>6.5 Chapter Summary</t>
+  </si>
+  <si>
+    <t>6.6 Limitations and bias</t>
+  </si>
+  <si>
+    <t>7.1 Introduction</t>
+  </si>
+  <si>
+    <t>7.2 Discussion of findings</t>
+  </si>
+  <si>
+    <t>7.3 Response to rationale</t>
+  </si>
+  <si>
+    <t>7.4 Contribution of the thesis</t>
+  </si>
+  <si>
+    <t>7.5 Future research potential</t>
+  </si>
+  <si>
+    <t>7.6 Limitations and generalisability</t>
+  </si>
+  <si>
+    <t>7.7 Conclusion</t>
+  </si>
+  <si>
+    <t>7.8 Recommendations</t>
+  </si>
+  <si>
+    <t>3.1 Introduction</t>
+  </si>
+  <si>
+    <t>3.2 Survey Dataset</t>
+  </si>
+  <si>
+    <t>3.3 Data cleaning</t>
+  </si>
+  <si>
+    <t>3.4 Respondent demographics</t>
+  </si>
+  <si>
+    <t>3.5 Chapter Summary</t>
   </si>
 </sst>
 </file>
@@ -519,14 +579,14 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -546,7 +606,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +614,6 @@
     <hyperlink ref="A2" r:id="rId1" location="_Toc167305369" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305369" xr:uid="{C2F6EA77-80A7-B84F-98EB-DAC34582DC3F}"/>
     <hyperlink ref="A3" r:id="rId2" location="_Toc167305372" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305372" xr:uid="{3B4894C8-01DF-1248-8041-2BE7CB16BC6D}"/>
     <hyperlink ref="A4" r:id="rId3" location="_Toc167305373" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305373" xr:uid="{CF30EDD6-B6C8-0640-BF65-881DE1A6A253}"/>
-    <hyperlink ref="A5" r:id="rId4" location="_Toc167305374" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305374" xr:uid="{4A3D75A6-13C4-244E-9F8C-D80E6A5C4A12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -563,10 +622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E84984-9C2A-7E44-9A9D-5CDEAF6600B9}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="219" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="219" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -581,52 +640,57 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -637,46 +701,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DAFE4A-C786-F843-B32C-AA4102B6DE81}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="_Toc167305398" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305398" xr:uid="{979BCF4B-7CA4-AF45-8C55-57DBEDE6DB81}"/>
-    <hyperlink ref="A3" r:id="rId2" location="_Toc167305400" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305400" xr:uid="{F6CA2820-872F-AF47-8FC9-6060CC7609D5}"/>
-    <hyperlink ref="A4" r:id="rId3" location="_Toc167305402" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305402" xr:uid="{532399E7-6F4E-6642-87C7-85BE3621A825}"/>
-    <hyperlink ref="A5" r:id="rId4" location="_Toc167305407" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305407" xr:uid="{AA52400F-89E7-1148-8310-834583E15E16}"/>
-    <hyperlink ref="A2" r:id="rId5" location="_Toc167305399" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305399" xr:uid="{FE62F559-7B92-574F-81CF-EAAAF2334C1C}"/>
+    <hyperlink ref="A4" r:id="rId2" location="_Toc167305400" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305400" xr:uid="{F6CA2820-872F-AF47-8FC9-6060CC7609D5}"/>
+    <hyperlink ref="A5" r:id="rId3" location="_Toc167305402" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305402" xr:uid="{532399E7-6F4E-6642-87C7-85BE3621A825}"/>
+    <hyperlink ref="A3" r:id="rId4" location="_Toc167305399" display="applewebdata://1A79DE3B-1AA0-49A0-BD65-E482672999AC/ - _Toc167305399" xr:uid="{FE62F559-7B92-574F-81CF-EAAAF2334C1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -687,44 +755,44 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="188" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -738,44 +806,44 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="235" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -789,57 +857,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="206" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F03E4B-DE81-A947-8941-670B8DF6F966}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView zoomScale="160" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B27"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -851,42 +869,92 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F03E4B-DE81-A947-8941-670B8DF6F966}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
